--- a/biology/Zoologie/Dicée_hirondelle/Dicée_hirondelle.xlsx
+++ b/biology/Zoologie/Dicée_hirondelle/Dicée_hirondelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_hirondelle</t>
+          <t>Dicée_hirondelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicaeum hirundinaceum
 Le Dicée hirondelle (Dicaeum hirundinaceum) est une espèce de passereaux placée dans la famille des Dicaeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_hirondelle</t>
+          <t>Dicée_hirondelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 10 à 11 cm de longueur. Le mâle est bleu-noir, a la poitrine rouge et le dessous de la queue d'un rouge léger et a une bande noire centrale descendant jusqu'à son ventre blanc. La femelle, moins voyante, est gris foncé avec un ventre gris clair et juste une touche de rouge sous la queue. Les immatures sont semblables à la femelle mais ont un bec orange au lieu de noir.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_hirondelle</t>
+          <t>Dicée_hirondelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit des baies de gui, de nectar, de pollen, d'araignées et d'insectes. Pendant la saison où il n'y a pas de baies de gui, il mange d'autres baies. Il consomme également le fruit d'Amyema quandang (en) que les autres oiseaux ignorent.[réf. nécessaire]
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_hirondelle</t>
+          <t>Dicée_hirondelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Australie, Papouasie-Nouvelle-Guinée et Indonésie orientale.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_hirondelle</t>
+          <t>Dicée_hirondelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Peterson
 Dicaeum hirundinaceum fulgidum Sclater,PL 1883
